--- a/Greylock Federal Credit Union - HQ @ 75 Kellogg.xlsx
+++ b/Greylock Federal Credit Union - HQ @ 75 Kellogg.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="VMware" sheetId="1" r:id="rId1"/>
     <sheet name="Network Device" sheetId="2" r:id="rId2"/>
+    <sheet name="Server" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
   <si>
     <t>Greylock Federal Credit Union - HQ @ 75 Kellogg</t>
   </si>
@@ -542,6 +543,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273797</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2102597" cy="481080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:J19" totalsRowCount="1">
   <autoFilter ref="A5:J18"/>
@@ -564,6 +608,28 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:M17" totalsRowCount="1">
   <autoFilter ref="A5:M16"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:M12" totalsRowCount="1">
+  <autoFilter ref="A5:M11"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1877,4 +1943,83 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Greylock Federal Credit Union - HQ @ 75 Kellogg.xlsx
+++ b/Greylock Federal Credit Union - HQ @ 75 Kellogg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="140">
   <si>
     <t>Greylock Federal Credit Union - HQ @ 75 Kellogg</t>
   </si>
@@ -379,6 +379,63 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>ADPS-XCHANGE</t>
+  </si>
+  <si>
+    <t>VirtualMachine</t>
+  </si>
+  <si>
+    <t>172.29.47.42</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2012 R2 Standard 6.3.9600 Build 9600.20671</t>
+  </si>
+  <si>
+    <t>CAROUSEL_SUPPORT_BOX</t>
+  </si>
+  <si>
+    <t>172.29.49.206</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2016 Standard 10.0.14393 Build 14393.5006</t>
+  </si>
+  <si>
+    <t>MAXTMHUB</t>
+  </si>
+  <si>
+    <t>VMware Virtual Platform</t>
+  </si>
+  <si>
+    <t>172.29.49.6</t>
+  </si>
+  <si>
+    <t>NECTARRIG</t>
+  </si>
+  <si>
+    <t>VMware7,1</t>
+  </si>
+  <si>
+    <t>172.29.49.238</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Server 2016 Standard 10.0.14393 Build 14393.5501</t>
+  </si>
+  <si>
+    <t>PTKS-XCHANGE</t>
+  </si>
+  <si>
+    <t>172.29.49.99</t>
+  </si>
+  <si>
+    <t>carousel-OpsRampgw18</t>
+  </si>
+  <si>
+    <t>172.29.49.153</t>
+  </si>
+  <si>
+    <t>Ubuntu 18.04.6 LTS</t>
   </si>
 </sst>
 </file>
@@ -628,9 +685,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:M12" totalsRowCount="1">
-  <autoFilter ref="A5:M11"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:J12" totalsRowCount="1">
+  <autoFilter ref="A5:J11"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
@@ -641,9 +698,6 @@
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
     <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1947,13 +2001,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,55 +2020,235 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
